--- a/working_data/function_4_data.xlsx
+++ b/working_data/function_4_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,6 +1761,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.102041</v>
+      </c>
+      <c r="E69">
+        <v>-23.10956470571409</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.204081</v>
+      </c>
+      <c r="E70">
+        <v>-21.58417940885292</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_4_data.xlsx
+++ b/working_data/function_4_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,6 +1801,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.306122</v>
+      </c>
+      <c r="E71">
+        <v>-20.61727907070679</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_4_data.xlsx
+++ b/working_data/function_4_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1821,6 +1821,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>0.575725</v>
+      </c>
+      <c r="B72">
+        <v>0.426731</v>
+      </c>
+      <c r="C72">
+        <v>0.423785</v>
+      </c>
+      <c r="D72">
+        <v>0.246967</v>
+      </c>
+      <c r="E72">
+        <v>-4.036506608861025</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_4_data.xlsx
+++ b/working_data/function_4_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
   <si>
     <t>X_1</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,6 +1841,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>0.572664</v>
+      </c>
+      <c r="B73">
+        <v>0.42367</v>
+      </c>
+      <c r="C73">
+        <v>0.420724</v>
+      </c>
+      <c r="D73">
+        <v>0.245946</v>
+      </c>
+      <c r="E73">
+        <v>-4.023782468597563</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
